--- a/report/No1_テスト結果.xlsx
+++ b/report/No1_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ログイン後のトップページ</t>
     <rPh sb="4" eb="5">
@@ -69,6 +69,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2023/8/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -110,12 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -144,7 +149,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>223196</xdr:colOff>
+      <xdr:colOff>161563</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>94169</xdr:rowOff>
     </xdr:to>
@@ -632,18 +637,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
-    </sheetView>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="52" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="52" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45140</v>
+      <c r="A1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -670,7 +674,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -678,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -769,6 +774,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -926,22 +946,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -957,28 +986,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>